--- a/assets/review 1.xlsx
+++ b/assets/review 1.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dayeong\howhyjdy.github.io\howhymath\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dayeong\howhyjdy.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8505" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8505" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="weather" sheetId="1" r:id="rId4"/>
@@ -20,69 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <x:si>
+    <x:t>비가 오는 흐린 날씨에 학생들의 집중도가 약간 떨어지는 경향이 있었지만, 수업이 진행될수록 차분한 분위기 속에서 학습에 집중하는 모습을 보여주었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몸 상태가 회복된 후, [학생 이름]은 다시 정상적인 학습 활동을 하며 좋은 학습 성과를 보이고 있습니다. 컨디션 회복에 대한 지원이 효과를 보고 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수업에 대한 태도가 매우 긍정적이고, 어려운 문제도 도전하는 모습을 보여 주었습니다. 다만, 때로는 성급히 결론을 내리려는 경향이 있어 신중함이 필요합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수업에 적극적으로 참여하고 질문도 많이 하며, 그 열정적인 태도가 눈에 띄었습니다. 다만, 때때로 지나치게 다른 학생의 의견을 강하게 주장하는 모습이 보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">날씨가 점점 더워지면서 학생들이 쉽게 지치는 시기입니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요즘 청명한 하늘과 상쾌한 바람 덕분에 학생들도 한층 더 활기차게 학교생활을 하고 있습니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 수업에 좀 더 신중하게 참여하고 있으며, 학습 내용을 정확히 이해하려는 노력이 돋보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요즘 따뜻한 봄기운이 감도는 날씨 속에서 학생들도 한층 활기찬 모습입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아침저녁으로 쌀쌀한 날씨가 계속되면서 학생들이 건강을 조심해야 할 때입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 흐려진 날씨에 약간의 우울한 기운이 감돌았지만, 학생들이 이를 극복하고 수업에 집중하려는 노력을 보여주었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바람이 많이 부는 날씨에도 불구하고, 학생들은 수업에 열정을 다해 임했고, 활발한 의견 교환이 이루어졌습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최근 피로가 누적되어 학습에 다소 집중이 흐트러졌습니다. 충분한 휴식과 식사 관리가 필요할 것으로 보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘은 맑고 화창한 날씨 덕분에 학생들이 활기차게 수업에 참여하는 모습을 보였습니다. 햇볕이 따뜻해지면서 분위기가 밝고 긍정적이었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">비가 자주 내리는 요즘, 학생들이 다소 나른해할 때가 있지만, [학생 이름]은 항상 밝은 모습으로 수업에 참여하고 있습니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신감을 가지고 발표에 임하며 동료들과 소통하는 태도를 보였습니다. 앞으로 더욱 균형 잡힌 태도로 학습에 임해 주시기 바랍니다.</x:t>
+  </x:si>
   <x:si>
     <x:t>warning</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">비가 자주 내리는 요즘, 학생들이 다소 나른해할 때가 있지만, [학생 이름]은 항상 밝은 모습으로 수업에 참여하고 있습니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신감을 가지고 발표에 임하며 동료들과 소통하는 태도를 보였습니다. 앞으로 더욱 균형 잡힌 태도로 학습에 임해 주시기 바랍니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몸 상태가 회복된 후, [학생 이름]은 다시 정상적인 학습 활동을 하며 좋은 학습 성과를 보이고 있습니다. 컨디션 회복에 대한 지원이 효과를 보고 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 수업에 좀 더 신중하게 참여하고 있으며, 학습 내용을 정확히 이해하려는 노력이 돋보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘은 맑고 화창한 날씨 덕분에 학생들이 활기차게 수업에 참여하는 모습을 보였습니다. 햇볕이 따뜻해지면서 분위기가 밝고 긍정적이었습니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>sunny</x:t>
   </x:si>
   <x:si>
     <x:t>good</x:t>
   </x:si>
   <x:si>
-    <x:t>수업에 적극적으로 참여하고 질문도 많이 하며, 그 열정적인 태도가 눈에 띄었습니다. 다만, 때때로 지나치게 다른 학생의 의견을 강하게 주장하는 모습이 보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요즘 청명한 하늘과 상쾌한 바람 덕분에 학생들도 한층 더 활기차게 학교생활을 하고 있습니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>요즘 따뜻한 봄기운이 감도는 날씨 속에서 학생들도 한층 활기찬 모습입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수업에 대한 태도가 매우 긍정적이고, 어려운 문제도 도전하는 모습을 보여 주었습니다. 다만, 때로는 성급히 결론을 내리려는 경향이 있어 신중함이 필요합니다.</x:t>
+    <x:t>cloudy</x:t>
   </x:si>
   <x:si>
     <x:t>rain</x:t>
   </x:si>
   <x:si>
-    <x:t>갑자기 흐려진 날씨에 약간의 우울한 기운이 감돌았지만, 학생들이 이를 극복하고 수업에 집중하려는 노력을 보여주었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cloudy</x:t>
-  </x:si>
-  <x:si>
     <x:t>bad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최근 피로가 누적되어 학습에 다소 집중이 흐트러졌습니다. 충분한 휴식과 식사 관리가 필요할 것으로 보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바람이 많이 부는 날씨에도 불구하고, 학생들은 수업에 열정을 다해 임했고, 활발한 의견 교환이 이루어졌습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">날씨가 점점 더워지면서 학생들이 쉽게 지치는 시기입니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>아침저녁으로 쌀쌀한 날씨가 계속되면서 학생들이 건강을 조심해야 할 때입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비가 오는 흐린 날씨에 학생들의 집중도가 약간 떨어지는 경향이 있었지만, 수업이 진행될수록 차분한 분위기 속에서 학습에 집중하는 모습을 보여주었습니다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -187,7 +187,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -270,7 +269,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -305,7 +303,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -350,7 +347,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -394,7 +390,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -479,7 +474,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -500,7 +494,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -531,7 +524,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -899,68 +891,86 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:B9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="2:2">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="2:2">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:2" s="2" customFormat="1">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" s="2" customFormat="1" ht="16.75">
+      <x:c r="A4" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:2" s="2" customFormat="1">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" s="2" customFormat="1" ht="16.75">
+      <x:c r="A6" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:2">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="B8" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="2:2">
       <x:c r="B9" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -970,53 +980,62 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G8" activeCellId="0" sqref="G8:G8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="2:2" s="2" customFormat="1">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" s="2" customFormat="1" ht="16.75">
+      <x:c r="A2" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:2" s="2" customFormat="1">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" s="2" customFormat="1" ht="16.75">
+      <x:c r="A4" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:2">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>